--- a/final_data_pipeline/output/311942longform_elec_options.xlsx
+++ b/final_data_pipeline/output/311942longform_elec_options.xlsx
@@ -579,7 +579,7 @@
         <v>70</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L2">
         <v>8000</v>
@@ -600,10 +600,10 @@
         <v>4.726875</v>
       </c>
       <c r="R2">
-        <v>1.741590909090909</v>
+        <v>1.837513876759573</v>
       </c>
       <c r="S2">
-        <v>1.89075</v>
+        <v>2.005936573945218</v>
       </c>
       <c r="T2">
         <v>92.35213186775687</v>
@@ -638,7 +638,7 @@
         <v>34</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L3">
         <v>8000</v>
@@ -653,10 +653,10 @@
         <v>77033.05786125691</v>
       </c>
       <c r="R3">
-        <v>1.741590909090909</v>
+        <v>1.837513876759573</v>
       </c>
       <c r="S3">
-        <v>1.89075</v>
+        <v>2.005936573945218</v>
       </c>
       <c r="T3">
         <v>9.629132232657113</v>
@@ -697,7 +697,7 @@
         <v>70</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L4">
         <v>8000</v>
@@ -718,10 +718,10 @@
         <v>4.726875</v>
       </c>
       <c r="R4">
-        <v>1.741590909090909</v>
+        <v>1.798225615362447</v>
       </c>
       <c r="S4">
-        <v>1.89075</v>
+        <v>1.958604378795604</v>
       </c>
       <c r="T4">
         <v>33.1126523689186</v>
@@ -756,7 +756,7 @@
         <v>34</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L5">
         <v>8000</v>
@@ -771,10 +771,10 @@
         <v>27620.03230772358</v>
       </c>
       <c r="R5">
-        <v>1.741590909090909</v>
+        <v>1.798225615362447</v>
       </c>
       <c r="S5">
-        <v>1.89075</v>
+        <v>1.958604378795604</v>
       </c>
       <c r="T5">
         <v>3.452504038465447</v>
@@ -815,7 +815,7 @@
         <v>70</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="L6">
         <v>8000</v>
@@ -836,10 +836,10 @@
         <v>4.726875</v>
       </c>
       <c r="R6">
-        <v>1.741590909090909</v>
+        <v>1.894871325212932</v>
       </c>
       <c r="S6">
-        <v>1.89075</v>
+        <v>2.075424331741031</v>
       </c>
       <c r="T6">
         <v>92.53961146453506</v>
@@ -874,7 +874,7 @@
         <v>34</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="L7">
         <v>8000</v>
@@ -889,10 +889,10 @@
         <v>77189.43894672119</v>
       </c>
       <c r="R7">
-        <v>1.741590909090909</v>
+        <v>1.894871325212932</v>
       </c>
       <c r="S7">
-        <v>1.89075</v>
+        <v>2.075424331741031</v>
       </c>
       <c r="T7">
         <v>9.648679868340148</v>
@@ -933,7 +933,7 @@
         <v>70</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L8">
         <v>8000</v>
@@ -954,10 +954,10 @@
         <v>4.726875</v>
       </c>
       <c r="R8">
-        <v>1.741590909090909</v>
+        <v>1.798225615362447</v>
       </c>
       <c r="S8">
-        <v>1.89075</v>
+        <v>1.958604378795604</v>
       </c>
       <c r="T8">
         <v>80.06989677374054</v>
@@ -992,7 +992,7 @@
         <v>34</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L9">
         <v>8000</v>
@@ -1007,10 +1007,10 @@
         <v>66788.16034207742</v>
       </c>
       <c r="R9">
-        <v>1.741590909090909</v>
+        <v>1.798225615362447</v>
       </c>
       <c r="S9">
-        <v>1.89075</v>
+        <v>1.958604378795604</v>
       </c>
       <c r="T9">
         <v>8.348520042759677</v>
@@ -1287,7 +1287,7 @@
         <v>70</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L14">
         <v>8000</v>
@@ -1308,10 +1308,10 @@
         <v>4.726875</v>
       </c>
       <c r="R14">
-        <v>1.741590909090909</v>
+        <v>1.837513876759573</v>
       </c>
       <c r="S14">
-        <v>1.89075</v>
+        <v>2.005936573945218</v>
       </c>
       <c r="T14">
         <v>167.1064184480875</v>
@@ -1346,7 +1346,7 @@
         <v>34</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L15">
         <v>8000</v>
@@ -1361,10 +1361,10 @@
         <v>139387.3442979308</v>
       </c>
       <c r="R15">
-        <v>1.741590909090909</v>
+        <v>1.837513876759573</v>
       </c>
       <c r="S15">
-        <v>1.89075</v>
+        <v>2.005936573945218</v>
       </c>
       <c r="T15">
         <v>17.42341803724135</v>
@@ -1405,7 +1405,7 @@
         <v>70</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L16">
         <v>8000</v>
@@ -1426,10 +1426,10 @@
         <v>4.726875</v>
       </c>
       <c r="R16">
-        <v>1.741590909090909</v>
+        <v>1.940636870984383</v>
       </c>
       <c r="S16">
-        <v>1.89075</v>
+        <v>2.131200751448103</v>
       </c>
       <c r="T16">
         <v>76.44754507803351</v>
@@ -1464,7 +1464,7 @@
         <v>34</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L17">
         <v>8000</v>
@@ -1479,10 +1479,10 @@
         <v>63766.67267172464</v>
       </c>
       <c r="R17">
-        <v>1.741590909090909</v>
+        <v>1.940636870984383</v>
       </c>
       <c r="S17">
-        <v>1.89075</v>
+        <v>2.131200751448103</v>
       </c>
       <c r="T17">
         <v>7.97083408396558</v>
@@ -1523,7 +1523,7 @@
         <v>70</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L18">
         <v>8000</v>
@@ -1544,10 +1544,10 @@
         <v>4.726875</v>
       </c>
       <c r="R18">
-        <v>1.741590909090909</v>
+        <v>1.837513876759573</v>
       </c>
       <c r="S18">
-        <v>1.89075</v>
+        <v>2.005936573945218</v>
       </c>
       <c r="T18">
         <v>68.4547065439685</v>
@@ -1582,7 +1582,7 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L19">
         <v>8000</v>
@@ -1597,10 +1597,10 @@
         <v>57099.66043477941</v>
       </c>
       <c r="R19">
-        <v>1.741590909090909</v>
+        <v>1.837513876759573</v>
       </c>
       <c r="S19">
-        <v>1.89075</v>
+        <v>2.005936573945218</v>
       </c>
       <c r="T19">
         <v>7.137457554347426</v>
